--- a/data/trans_orig/P79A6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A6_2023-Provincia-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>5539</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2542</v>
+        <v>2517</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6375</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8689227617408599</v>
+        <v>0.8689227617408598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3987679702855578</v>
+        <v>0.3948836591191103</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>1943</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5387</v>
+        <v>4465</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3607299355342741</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.03733827496151954</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>1</v>
+        <v>0.8288961120173398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -783,19 +783,19 @@
         <v>7483</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2640</v>
+        <v>2369</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11065</v>
+        <v>11076</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6361616543173282</v>
+        <v>0.636161654317328</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2244742643314415</v>
+        <v>0.2013938916028635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9407058129091631</v>
+        <v>0.9416794363896793</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3849</v>
+        <v>3843</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1310772382591401</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6037184733664367</v>
+        <v>0.602802458786231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -833,19 +833,19 @@
         <v>3444</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5387</v>
+        <v>5185</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6392700644657259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0</v>
+        <v>0.1702139812539853</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>1</v>
+        <v>0.9625113087808216</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -854,19 +854,19 @@
         <v>4279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9122</v>
+        <v>9393</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3638383456826718</v>
+        <v>0.3638383456826719</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05929418709083664</v>
+        <v>0.05832056361032056</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.775525735668558</v>
+        <v>0.7986061083971365</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>17780</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12185</v>
+        <v>11160</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20756</v>
+        <v>20716</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8209062526773491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5625829916759533</v>
+        <v>0.515273223465806</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9583013728268728</v>
+        <v>0.9564611511483646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -979,19 +979,19 @@
         <v>21947</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18387</v>
+        <v>17878</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23949</v>
+        <v>23944</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8912180958643448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7466441163251606</v>
+        <v>0.725982739199812</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9725030840775505</v>
+        <v>0.9722868325231582</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -1000,19 +1000,19 @@
         <v>39727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32958</v>
+        <v>33045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43542</v>
+        <v>43814</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8583155401712795</v>
+        <v>0.8583155401712798</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7120636707382954</v>
+        <v>0.7139381050163178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9407446482573104</v>
+        <v>0.9466100755489076</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>3879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>903</v>
+        <v>943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9474</v>
+        <v>10499</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.179093747322651</v>
+        <v>0.1790937473226511</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04169862717312718</v>
+        <v>0.04353884885163525</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.437417008324047</v>
+        <v>0.4847267765341939</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1050,19 +1050,19 @@
         <v>2679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6239</v>
+        <v>6748</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1087819041356552</v>
+        <v>0.1087819041356551</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0274969159224496</v>
+        <v>0.0277131674768418</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2533558836748411</v>
+        <v>0.2740172608001885</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1071,19 +1071,19 @@
         <v>6558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2743</v>
+        <v>2471</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13327</v>
+        <v>13240</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1416844598287205</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05925535174268969</v>
+        <v>0.05338992445109225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2879363292617047</v>
+        <v>0.2860618949836821</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>4833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1990</v>
+        <v>1897</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8068</v>
+        <v>7806</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5079678427909782</v>
+        <v>0.5079678427909781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2091524537595398</v>
+        <v>0.1993561872875452</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.847957662161562</v>
+        <v>0.8203619792645997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1196,19 +1196,19 @@
         <v>11961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7930</v>
+        <v>7568</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15475</v>
+        <v>15487</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6320683260777745</v>
+        <v>0.6320683260777743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4190503750825638</v>
+        <v>0.3999557397537234</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8178063801063049</v>
+        <v>0.8184018662155299</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1217,19 +1217,19 @@
         <v>16795</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11003</v>
+        <v>11232</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21793</v>
+        <v>21517</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5905451528009373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3868869480127932</v>
+        <v>0.3949646825279015</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.766311881088507</v>
+        <v>0.7565990800655346</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>4682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1447</v>
+        <v>1709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7525</v>
+        <v>7618</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.492032157209022</v>
+        <v>0.4920321572090219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1520423378384382</v>
+        <v>0.1796380207354001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7908475462404604</v>
+        <v>0.8006438127124548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1267,19 +1267,19 @@
         <v>6962</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3448</v>
+        <v>3436</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10993</v>
+        <v>11355</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3679316739222257</v>
+        <v>0.3679316739222256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1821936198936952</v>
+        <v>0.18159813378447</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5809496249174365</v>
+        <v>0.6000442602462767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1288,19 +1288,19 @@
         <v>11644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6646</v>
+        <v>6922</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17436</v>
+        <v>17207</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4094548471990627</v>
+        <v>0.4094548471990628</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2336881189114929</v>
+        <v>0.2434009199344653</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6131130519872062</v>
+        <v>0.6050353174720985</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>14098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8232</v>
+        <v>8161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18373</v>
+        <v>18346</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7012430962148596</v>
+        <v>0.7012430962148594</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.409465259819517</v>
+        <v>0.4059598223428908</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9139133796080052</v>
+        <v>0.9125400197767864</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>13345</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7551</v>
+        <v>7843</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18853</v>
+        <v>18309</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4912397370847279</v>
+        <v>0.4912397370847278</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2779420995421267</v>
+        <v>0.2887166574068277</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6939892550250226</v>
+        <v>0.6739606325747128</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1434,19 +1434,19 @@
         <v>27442</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18315</v>
+        <v>18890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34808</v>
+        <v>35585</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5805541071810478</v>
+        <v>0.5805541071810476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3874733250780203</v>
+        <v>0.3996349542069536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7363715523477832</v>
+        <v>0.7528174359170262</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>6006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1731</v>
+        <v>1758</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11872</v>
+        <v>11943</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2987569037851406</v>
+        <v>0.2987569037851405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08608662039199501</v>
+        <v>0.08745998022321352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.590534740180483</v>
+        <v>0.5940401776571097</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1484,19 +1484,19 @@
         <v>13821</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8313</v>
+        <v>8857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19615</v>
+        <v>19323</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5087602629152722</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3060107449749775</v>
+        <v>0.3260393674252872</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7220579004578732</v>
+        <v>0.7112833425931723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1505,19 +1505,19 @@
         <v>19827</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12461</v>
+        <v>11684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28954</v>
+        <v>28379</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4194458928189524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2636284476522167</v>
+        <v>0.2471825640829738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6125266749219797</v>
+        <v>0.6003650457930466</v>
       </c>
     </row>
     <row r="15">
@@ -1630,7 +1630,7 @@
         <v>1760</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>2146</v>
@@ -1639,7 +1639,7 @@
         <v>0.8201312931593463</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2299089739902195</v>
+        <v>0.2228268862818045</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         <v>2355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>949</v>
+        <v>879</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>3281</v>
@@ -1660,7 +1660,7 @@
         <v>0.7179069040667857</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2892550468029402</v>
+        <v>0.2679988269452211</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1798687068406537</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7722060298100459</v>
+        <v>0.7748243148819631</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2334</v>
+        <v>2402</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2820930959332144</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7113560706741529</v>
+        <v>0.7321967025940107</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>7791</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4529</v>
+        <v>4199</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10782</v>
+        <v>10656</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6310328106066824</v>
+        <v>0.6310328106066821</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3667768044573408</v>
+        <v>0.3400807933799495</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8732726916157187</v>
+        <v>0.8630446143492464</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1847,19 +1847,19 @@
         <v>4397</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1512</v>
+        <v>1709</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7917</v>
+        <v>7652</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3109081061919436</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1069192355849069</v>
+        <v>0.1208618438381133</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5598287742357974</v>
+        <v>0.5411265686084159</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1868,19 +1868,19 @@
         <v>12188</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7602</v>
+        <v>7864</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17266</v>
+        <v>17392</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4601318358749964</v>
+        <v>0.4601318358749963</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2869894699766207</v>
+        <v>0.2969019849615576</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6518502621597566</v>
+        <v>0.6566052361478488</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>4556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1565</v>
+        <v>1691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7818</v>
+        <v>8148</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3689671893933177</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1267273083842813</v>
+        <v>0.1369553856507526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6332231955426596</v>
+        <v>0.6599192066200504</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -1918,19 +1918,19 @@
         <v>9744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6224</v>
+        <v>6489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12629</v>
+        <v>12432</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6890918938080564</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4401712257642031</v>
+        <v>0.4588734313915845</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8930807644150937</v>
+        <v>0.8791381561618867</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1939,19 +1939,19 @@
         <v>14300</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9222</v>
+        <v>9096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18886</v>
+        <v>18624</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5398681641250037</v>
+        <v>0.5398681641250038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3481497378402437</v>
+        <v>0.3433947638521508</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7130105300233792</v>
+        <v>0.703098015038442</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>12621</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7333</v>
+        <v>8012</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16481</v>
+        <v>16679</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6670370830591907</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3875491732377109</v>
+        <v>0.4234453988189636</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8710644322608111</v>
+        <v>0.8814927677778871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2064,19 +2064,19 @@
         <v>32356</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24877</v>
+        <v>25232</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37455</v>
+        <v>37915</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7097469496867608</v>
+        <v>0.7097469496867609</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5456940904166402</v>
+        <v>0.5534705198582571</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8216029282797648</v>
+        <v>0.8316921935124117</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2085,19 +2085,19 @@
         <v>44976</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36818</v>
+        <v>36097</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52346</v>
+        <v>52328</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6972198128589359</v>
+        <v>0.697219812858936</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5707528728582053</v>
+        <v>0.559573004231518</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.811458316913906</v>
+        <v>0.8111855062992724</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>6300</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2440</v>
+        <v>2242</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11588</v>
+        <v>10909</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3329629169408092</v>
+        <v>0.3329629169408093</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1289355677391888</v>
+        <v>0.1185072322221127</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6124508267622889</v>
+        <v>0.5765546011810363</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2135,19 +2135,19 @@
         <v>13232</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8133</v>
+        <v>7673</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20711</v>
+        <v>20356</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2902530503132393</v>
+        <v>0.2902530503132394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1783970717202354</v>
+        <v>0.1683078064875881</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.45430590958336</v>
+        <v>0.4465294801417428</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -2156,19 +2156,19 @@
         <v>19532</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12162</v>
+        <v>12180</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27690</v>
+        <v>28411</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.302780187141064</v>
+        <v>0.3027801871410641</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1885416830860939</v>
+        <v>0.188814493700728</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4292471271417945</v>
+        <v>0.440426995768482</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>192779</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>184508</v>
+        <v>183679</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198254</v>
+        <v>198372</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9466960693966043</v>
+        <v>0.9466960693966044</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9060816696919012</v>
+        <v>0.902009243233634</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9735824324738654</v>
+        <v>0.9741627609803082</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>278</v>
@@ -2281,19 +2281,19 @@
         <v>209216</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>202527</v>
+        <v>203402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>212825</v>
+        <v>212954</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9695959161020355</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.938596286034786</v>
+        <v>0.942652485480431</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9863239812148725</v>
+        <v>0.9869233969333877</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>476</v>
@@ -2302,19 +2302,19 @@
         <v>401994</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>391426</v>
+        <v>392779</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>408971</v>
+        <v>408834</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.9584774830636376</v>
+        <v>0.9584774830636378</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9332810656994124</v>
+        <v>0.9365070252234521</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9751119512852569</v>
+        <v>0.9747853129459465</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>10854</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5379</v>
+        <v>5261</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19125</v>
+        <v>19954</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05330393060339571</v>
+        <v>0.05330393060339572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0264175675261349</v>
+        <v>0.02583723901969047</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09391833030810004</v>
+        <v>0.09799075676636505</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2352,19 +2352,19 @@
         <v>6560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2951</v>
+        <v>2822</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13249</v>
+        <v>12374</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03040408389796432</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01367601878512745</v>
+        <v>0.0130766030666121</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0614037139652139</v>
+        <v>0.05734751451956854</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -2373,19 +2373,19 @@
         <v>17415</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10438</v>
+        <v>10575</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27983</v>
+        <v>26630</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0415225169363623</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02488804871474308</v>
+        <v>0.02521468705405362</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06671893430058767</v>
+        <v>0.06349297477654782</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>256037</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>244093</v>
+        <v>241673</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>267246</v>
+        <v>265767</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8717959495910227</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8311285043321256</v>
+        <v>0.8228874748367311</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9099621338174613</v>
+        <v>0.9049259872437935</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>393</v>
@@ -2498,19 +2498,19 @@
         <v>296924</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>279275</v>
+        <v>279391</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>308944</v>
+        <v>310457</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8393540425330274</v>
+        <v>0.8393540425330273</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7894626004053595</v>
+        <v>0.7897923594971228</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8733317902460598</v>
+        <v>0.8776092401261155</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>643</v>
@@ -2519,19 +2519,19 @@
         <v>552961</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>532919</v>
+        <v>532240</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>570540</v>
+        <v>571478</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8540701592290861</v>
+        <v>0.8540701592290864</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8231148769064192</v>
+        <v>0.8220652992726727</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.881222064258823</v>
+        <v>0.8826707445561311</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>37652</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26443</v>
+        <v>27922</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49596</v>
+        <v>52016</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1282040504089773</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09003786618253877</v>
+        <v>0.09507401275620647</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1688714956678741</v>
+        <v>0.1771125251632686</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -2569,19 +2569,19 @@
         <v>56829</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>44809</v>
+        <v>43296</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>74478</v>
+        <v>74362</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1606459574669726</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1266682097539403</v>
+        <v>0.1223907598738845</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2105373995946406</v>
+        <v>0.210207640502877</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>97</v>
@@ -2590,19 +2590,19 @@
         <v>94481</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>76902</v>
+        <v>75964</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>114523</v>
+        <v>115202</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1459298407709138</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.118777935741177</v>
+        <v>0.117329255443869</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1768851230935809</v>
+        <v>0.1779347007273273</v>
       </c>
     </row>
     <row r="30">
